--- a/sms/src/main/resources/Excel/Subcription.xlsx
+++ b/sms/src/main/resources/Excel/Subcription.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\sms\src\main\resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5FEB0E-0441-445F-976F-17070DD5DE76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E8ADDE-6B1C-4D8A-B11E-B42A3FB23C7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4044726E-DC03-4AC9-8BEB-B6DFF1E68426}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="5895" xr2:uid="{4044726E-DC03-4AC9-8BEB-B6DFF1E68426}"/>
   </bookViews>
   <sheets>
     <sheet name="subcription_table" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -42,9 +36,6 @@
     <t>Wednesday</t>
   </si>
   <si>
-    <t>Thrusday</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
@@ -57,9 +48,6 @@
     <t>Monday</t>
   </si>
   <si>
-    <t>HI</t>
-  </si>
-  <si>
     <t>TOI</t>
   </si>
   <si>
@@ -70,6 +58,12 @@
   </si>
   <si>
     <t>BANANA</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>HT</t>
   </si>
 </sst>
 </file>
@@ -440,26 +434,29 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -468,21 +465,21 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -506,9 +503,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -532,9 +529,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -558,9 +555,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -584,9 +581,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>3</v>
